--- a/tests/Feature/config/kpi_zero.xlsx
+++ b/tests/Feature/config/kpi_zero.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="Cash" sheetId="2" r:id="rId5"/>
+    <sheet name="KPI" sheetId="2" r:id="rId5"/>
     <sheet name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -142,19 +142,19 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Cash</t>
+    <t>KPI</t>
   </si>
   <si>
     <t>kpi</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>00Kontanter p.t. Asset rule Using current amount: 100000 * 1</t>
+    <t>Kontanter p.t. Asset rule: Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 100000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 100000 * 1</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6131,7 +6131,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6909,7 +6909,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6979,7 +6979,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8591,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
@@ -8740,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
@@ -8963,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
@@ -9259,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
@@ -9481,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
@@ -9555,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
@@ -9703,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
@@ -9926,7 +9926,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
@@ -10000,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -10223,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -10297,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -10371,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -10593,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -10667,7 +10667,7 @@
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -10741,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -10889,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -11037,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
